--- a/capiq_data/in_process_ids/ids 4.xlsx
+++ b/capiq_data/in_process_ids/ids 4.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_ids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_ids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F0C71D-C55F-446C-95EE-E0AFFE34919A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E9C2D6-C4E5-48CC-99E2-E2A98278B7B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="14399" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"adb1a98a-d62c-40ee-9ed1-b995f6872bef"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"f72c778e-4337-4d9e-9eec-2c3d5c094c56"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,7 +41,7 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
@@ -254,6 +254,9 @@
     <t>IQ Name</t>
   </si>
   <si>
+    <t>IPGP</t>
+  </si>
+  <si>
     <t>IQV</t>
   </si>
   <si>
@@ -509,15 +512,6 @@
     <t>NOC</t>
   </si>
   <si>
-    <t>NLOK</t>
-  </si>
-  <si>
-    <t>NortonLifeLock Inc.</t>
-  </si>
-  <si>
-    <t>IQ35000</t>
-  </si>
-  <si>
     <t>Northrop Grumman Corporation</t>
   </si>
   <si>
@@ -1008,6 +1002,12 @@
   </si>
   <si>
     <t>IQ137473239</t>
+  </si>
+  <si>
+    <t>IPG Photonics Corporation</t>
+  </si>
+  <si>
+    <t>IQ427949</t>
   </si>
   <si>
     <t/>
@@ -1434,13 +1434,13 @@
         <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
         <v>257</v>
       </c>
       <c r="E5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1451,13 +1451,13 @@
         <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
         <v>257</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -2386,13 +2386,13 @@
         <v>257</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s">
         <v>257</v>
       </c>
       <c r="E61" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
@@ -2403,13 +2403,13 @@
         <v>257</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D62" t="s">
         <v>257</v>
       </c>
       <c r="E62" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
@@ -2692,13 +2692,13 @@
         <v>257</v>
       </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D79" t="s">
         <v>257</v>
       </c>
       <c r="E79" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
